--- a/flash_cards/math/5/flash_data.xlsx
+++ b/flash_cards/math/5/flash_data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,45 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Брус</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Мера ограниченного промежутка</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Определение: Брус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Мера ограниченного промежутка</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма об объединении конечного числа непересекающихся брусов</t>
   </si>
   <si>
-    <t xml:space="preserve">Элементарное множество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мера элементарного множества</t>
+    <t xml:space="preserve">Определение: Элементарное множество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Мера элементарного множества</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма о представлении элементарного множества в виде конечного объединения непересекающихся брусов 2 способами</t>
   </si>
   <si>
-    <t xml:space="preserve">Лемма. Если множества E и F элементарны, то элементарно их объединение, пересечение и вычитание.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Верхняя и нижняя меры Жордана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измеримое по Жордану множество</t>
+    <t xml:space="preserve">Лемма: Если множества E и F элементарны, то элементарно их объединение, пересечение и вычитание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Верхняя и нижняя меры Жордана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение:Измеримое по Жордану множество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма об измеримости ограниченного множества по Жордану</t>
   </si>
   <si>
     <t xml:space="preserve">Лемма об измеримости по Жордану границы и внутренности</t>
   </si>
   <si>
-    <t xml:space="preserve">Лемма. Множества A и S(связное). Если S не пересекается с границей A, то S лежит либо во внутренности, либо во внешности А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий измеримости по Жордану</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теорема. A и B измеримы по Жордану, то измеримы по Жордану из объединение, перечесение и внутренность.</t>
+    <t xml:space="preserve">Лемма: Множества A и S(связное). Если S не пересекается с границей A, то S лежит либо во внутренности, либо во внешности А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий измеримости по Жордану</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: A и B измеримы по Жордану, то измеримы по Жордану из объединение, перечесение и внутренность.</t>
   </si>
 </sst>
 </file>
@@ -281,23 +284,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -400,13 +437,13 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -456,25 +493,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
